--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Delta Project\MS\excel to word\git\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F91F07-4FCA-496E-A052-FF22E49079D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA66E288-2867-4524-8429-52A7567E6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="3705" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,19 +575,20 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>

--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\Delta Project\MS\excel to word\git\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA66E288-2867-4524-8429-52A7567E6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84972CD6-983F-4CE6-B077-1D8533E021E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="3705" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
